--- a/jyx2/Assets/Mods/JYX2/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/武功.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17805"/>
+    <workbookView windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -254,7 +254,7 @@
     <t>葵花神功</t>
   </si>
   <si>
-    <t>100,2,1,0,0,0|200,2,1,0,0,0|300,2,1,0,0,0|400,3,2,0,0,0|500,3,2,0,0,0|600,3,2,0,0,0|700,4,3,0,0,0|800,4,3,0,0,0|900,4,3,0,0,0|1300,5,3,0,0,0</t>
+    <t>100,2,1,0,0|200,2,1,0,0|300,2,1,0,0|400,3,2,0,0|500,3,2,0,0|600,3,2,0,0|700,4,3,0,0|800,4,3,0,0|900,4,3,0,0|1300,5,3,0,0</t>
   </si>
   <si>
     <t>化功大法</t>
@@ -655,10 +655,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -686,15 +686,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,16 +724,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -729,14 +776,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -745,15 +784,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -769,24 +801,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,15 +810,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,22 +824,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -852,7 +852,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,31 +972,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,133 +1020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,11 +1091,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,17 +1115,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,15 +1141,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1158,162 +1149,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1731,8 +1731,8 @@
   <sheetPr/>
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/jyx2/Assets/Mods/JYX2/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/武功.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowHeight="17805"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -497,7 +497,7 @@
     <t>霹雳刀法</t>
   </si>
   <si>
-    <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0,0|220,3,1,0,0,0|290,5,2,0,0,0|370,5,2,0,0,0|500,7,3,0,0,0</t>
+    <t>10,1,0,0,0|20,1,0,0,0|40,1,0,0,0|70,1,0,0,0|110,1,0,0,0|160,3,1,0,0|220,3,1,0,0|290,5,2,0,0|370,5,2,0,0|500,7,3,0,0</t>
   </si>
   <si>
     <t>神龙双勾</t>
@@ -655,10 +655,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -686,36 +686,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -730,15 +700,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -746,7 +709,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,15 +724,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -785,7 +754,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -801,8 +785,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,7 +802,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,6 +819,14 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,7 +852,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,55 +966,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,55 +990,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,49 +1014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,6 +1057,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,6 +1100,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1102,24 +1120,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,6 +1141,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1149,171 +1158,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1731,8 +1731,8 @@
   <sheetPr/>
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A72" sqref="$A72:$XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/jyx2/Assets/Mods/JYX2/Configs/武功.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/武功.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meino\Documents\Projects\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE66F81-4DA5-41A3-965E-292783F8767C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17805"/>
+    <workbookView xWindow="17685" yWindow="2655" windowWidth="24900" windowHeight="17985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -653,14 +659,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -671,7 +671,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -687,157 +687,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,194 +710,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1060,263 +734,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,65 +768,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="普通 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="普通 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1723,29 +1111,29 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A72" sqref="$A72:$XFD72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="112.044247787611" customWidth="1"/>
+    <col min="7" max="7" width="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1768,7 +1156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1791,7 +1179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1814,7 +1202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1837,7 +1225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1860,7 +1248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1883,7 +1271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1906,7 +1294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1929,7 +1317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1952,7 +1340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1975,7 +1363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1998,7 +1386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2021,7 +1409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2044,7 +1432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2067,7 +1455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2090,7 +1478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2113,7 +1501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2136,7 +1524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2159,7 +1547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2182,7 +1570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2205,7 +1593,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2228,7 +1616,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2251,7 +1639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2274,7 +1662,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2297,7 +1685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2320,7 +1708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2343,7 +1731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2366,7 +1754,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2389,7 +1777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2412,7 +1800,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2435,7 +1823,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2458,7 +1846,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2481,7 +1869,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2504,7 +1892,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2527,7 +1915,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2550,7 +1938,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2573,7 +1961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2596,7 +1984,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2619,7 +2007,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2642,7 +2030,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2665,7 +2053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2688,7 +2076,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2711,7 +2099,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2734,7 +2122,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2757,7 +2145,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2780,7 +2168,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2803,7 +2191,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -2826,7 +2214,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45</v>
       </c>
@@ -2849,7 +2237,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>46</v>
       </c>
@@ -2872,7 +2260,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>47</v>
       </c>
@@ -2895,7 +2283,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>48</v>
       </c>
@@ -2918,7 +2306,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>49</v>
       </c>
@@ -2941,7 +2329,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>50</v>
       </c>
@@ -2964,7 +2352,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>51</v>
       </c>
@@ -2987,7 +2375,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>52</v>
       </c>
@@ -3010,7 +2398,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>53</v>
       </c>
@@ -3033,7 +2421,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>54</v>
       </c>
@@ -3056,7 +2444,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>55</v>
       </c>
@@ -3079,7 +2467,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>56</v>
       </c>
@@ -3102,7 +2490,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>57</v>
       </c>
@@ -3125,7 +2513,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>58</v>
       </c>
@@ -3148,7 +2536,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>59</v>
       </c>
@@ -3171,7 +2559,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>60</v>
       </c>
@@ -3194,7 +2582,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>61</v>
       </c>
@@ -3217,7 +2605,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>62</v>
       </c>
@@ -3240,7 +2628,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>63</v>
       </c>
@@ -3251,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E67" s="3">
         <v>2</v>
@@ -3263,7 +2651,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>64</v>
       </c>
@@ -3286,7 +2674,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>65</v>
       </c>
@@ -3309,7 +2697,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>66</v>
       </c>
@@ -3332,7 +2720,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>67</v>
       </c>
@@ -3355,7 +2743,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>68</v>
       </c>
@@ -3378,7 +2766,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>69</v>
       </c>
@@ -3401,7 +2789,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>70</v>
       </c>
@@ -3424,7 +2812,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>71</v>
       </c>
@@ -3447,7 +2835,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>72</v>
       </c>
@@ -3470,7 +2858,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>73</v>
       </c>
@@ -3493,7 +2881,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>74</v>
       </c>
@@ -3516,7 +2904,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>75</v>
       </c>
@@ -3539,7 +2927,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>76</v>
       </c>
@@ -3562,7 +2950,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>77</v>
       </c>
@@ -3585,7 +2973,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>78</v>
       </c>
@@ -3608,7 +2996,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>79</v>
       </c>
@@ -3631,7 +3019,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>80</v>
       </c>
@@ -3654,7 +3042,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>81</v>
       </c>
@@ -3677,7 +3065,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>82</v>
       </c>
@@ -3700,7 +3088,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>83</v>
       </c>
@@ -3723,7 +3111,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>84</v>
       </c>
@@ -3746,7 +3134,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>85</v>
       </c>
@@ -3769,7 +3157,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>86</v>
       </c>
@@ -3792,7 +3180,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>87</v>
       </c>
@@ -3803,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="D91" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>3</v>
@@ -3815,7 +3203,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>88</v>
       </c>
@@ -3838,7 +3226,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>89</v>
       </c>
@@ -3861,7 +3249,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>90</v>
       </c>
@@ -3884,7 +3272,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>91</v>
       </c>
@@ -3907,7 +3295,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>92</v>
       </c>
@@ -3930,7 +3318,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" spans="1:7">
+    <row r="97" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>93</v>
       </c>
@@ -3953,7 +3341,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" spans="1:7">
+    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>94</v>
       </c>
@@ -3976,7 +3364,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" spans="1:7">
+    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>95</v>
       </c>
@@ -3999,7 +3387,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" ht="13.85" spans="1:7">
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>96</v>
       </c>
@@ -4022,7 +3410,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" spans="1:7">
+    <row r="101" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>97</v>
       </c>
@@ -4045,7 +3433,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4054,7 +3442,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4063,7 +3451,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4072,7 +3460,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4081,7 +3469,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4090,7 +3478,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4099,7 +3487,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4108,7 +3496,7 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4117,7 +3505,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4126,7 +3514,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4135,7 +3523,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4144,7 +3532,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -4153,7 +3541,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -4162,7 +3550,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -4171,7 +3559,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -4180,7 +3568,7 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -4189,7 +3577,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -4198,7 +3586,7 @@
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -4207,7 +3595,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -4216,7 +3604,7 @@
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -4225,7 +3613,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -4234,7 +3622,7 @@
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -4243,7 +3631,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -4252,7 +3640,7 @@
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4261,7 +3649,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4270,7 +3658,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4279,7 +3667,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4288,7 +3676,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4297,7 +3685,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4306,7 +3694,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4315,7 +3703,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4324,7 +3712,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4333,7 +3721,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4342,7 +3730,7 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4351,7 +3739,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4360,7 +3748,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4369,7 +3757,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4378,7 +3766,7 @@
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4387,7 +3775,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4396,7 +3784,7 @@
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4405,7 +3793,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4414,7 +3802,7 @@
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4423,7 +3811,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4432,7 +3820,7 @@
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4441,7 +3829,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4450,7 +3838,7 @@
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4459,7 +3847,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4468,7 +3856,7 @@
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4477,7 +3865,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4486,7 +3874,7 @@
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4495,7 +3883,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4504,7 +3892,7 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4513,7 +3901,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4522,7 +3910,7 @@
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4531,7 +3919,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4540,7 +3928,7 @@
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4549,7 +3937,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4558,7 +3946,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4567,7 +3955,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4576,7 +3964,7 @@
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4585,7 +3973,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4594,7 +3982,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4603,7 +3991,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4612,7 +4000,7 @@
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -4621,7 +4009,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -4630,7 +4018,7 @@
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -4639,7 +4027,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -4648,7 +4036,7 @@
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -4657,7 +4045,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -4666,7 +4054,7 @@
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -4675,7 +4063,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -4684,7 +4072,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -4693,7 +4081,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -4702,7 +4090,7 @@
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -4711,7 +4099,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -4720,7 +4108,7 @@
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -4729,7 +4117,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -4738,7 +4126,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -4747,7 +4135,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -4756,7 +4144,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -4765,7 +4153,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -4774,7 +4162,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -4783,7 +4171,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -4792,7 +4180,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -4801,7 +4189,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -4810,7 +4198,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -4819,7 +4207,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -4828,7 +4216,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -4837,7 +4225,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -4846,7 +4234,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -4855,7 +4243,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -4864,7 +4252,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -4873,7 +4261,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -4882,7 +4270,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -4891,7 +4279,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -4900,7 +4288,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -4909,7 +4297,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -4918,7 +4306,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -4927,7 +4315,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -4936,7 +4324,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -4945,7 +4333,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -4954,7 +4342,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -4964,8 +4352,8 @@
       <c r="G203" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>